--- a/Temporary entity spreadsheet/Temporary entity spreadsheet.xlsx
+++ b/Temporary entity spreadsheet/Temporary entity spreadsheet.xlsx
@@ -1,142 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schen\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3614868E-2B5F-4BC4-9B5E-DCDB5D1307FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="47595" yWindow="555" windowWidth="20025" windowHeight="19710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>Logical Definition</t>
-  </si>
-  <si>
-    <t>Informal Definition</t>
-  </si>
-  <si>
-    <t>Synonyms</t>
-  </si>
-  <si>
-    <t>Examples</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Sub-ontology</t>
-  </si>
-  <si>
-    <t>Definition source</t>
-  </si>
-  <si>
-    <t>Cross reference</t>
-  </si>
-  <si>
-    <t>REL 'part of'</t>
-  </si>
-  <si>
-    <t>REL 'has part'</t>
-  </si>
-  <si>
-    <t>REL 'is about'</t>
-  </si>
-  <si>
-    <t>LSR no.</t>
-  </si>
-  <si>
-    <t>Ontology section</t>
-  </si>
-  <si>
-    <t>Curator note</t>
-  </si>
-  <si>
-    <t>Curation status</t>
-  </si>
-  <si>
-    <t>To be reviewed by</t>
-  </si>
-  <si>
-    <t>Reviewer query</t>
-  </si>
-  <si>
-    <t>Curator</t>
-  </si>
-  <si>
-    <t>person</t>
-  </si>
-  <si>
-    <t>data item</t>
-  </si>
-  <si>
-    <t>personal attribute</t>
-  </si>
-  <si>
-    <t>aggregate human age</t>
-  </si>
-  <si>
-    <t>health status attribute</t>
-  </si>
-  <si>
-    <t>A personal attribute that is the state of an individual's mental or physical condition.</t>
-  </si>
-  <si>
-    <t>The aggregate of human age in a population.</t>
-  </si>
-  <si>
-    <t>An extended organism that is a member of the species Homo sapiens.</t>
-  </si>
-  <si>
-    <t>extended organism</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffffff"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -151,23 +55,83 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -455,116 +419,257 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="13.08984375" customWidth="1"/>
-    <col min="3" max="3" width="22.08984375" customWidth="1"/>
-    <col min="4" max="4" width="18.90625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>The aggregate of human age in a population.</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Parent</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Logical Definition</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Informal Definition</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Sub-ontology</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Definition source</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>REL 'part of'</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>REL 'has part'</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>REL 'is about'</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>LSR no.</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Ontology section</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Curator note</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Curation status</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>To be reviewed by</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Reviewer query</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Curator</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr"/>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>aggregate human age</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr"/>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr"/>
+      <c r="H2" s="2" t="inlineStr"/>
+      <c r="I2" s="2" t="inlineStr"/>
+      <c r="J2" s="2" t="inlineStr"/>
+      <c r="K2" s="2" t="inlineStr"/>
+      <c r="L2" s="2" t="inlineStr"/>
+      <c r="M2" s="2" t="inlineStr"/>
+      <c r="N2" s="2" t="inlineStr"/>
+      <c r="O2" s="2" t="inlineStr"/>
+      <c r="P2" s="2" t="inlineStr"/>
+      <c r="Q2" s="2" t="inlineStr"/>
+      <c r="R2" s="2" t="inlineStr"/>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="inlineStr"/>
+      <c r="U2" s="2" t="inlineStr"/>
+      <c r="V2" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr"/>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>health status attribute</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>A personal attribute that is the state of an individual's mental or physical condition.</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>personal attribute</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr"/>
+      <c r="G3" s="2" t="inlineStr"/>
+      <c r="H3" s="2" t="inlineStr"/>
+      <c r="I3" s="2" t="inlineStr"/>
+      <c r="J3" s="2" t="inlineStr"/>
+      <c r="K3" s="2" t="inlineStr"/>
+      <c r="L3" s="2" t="inlineStr"/>
+      <c r="M3" s="2" t="inlineStr"/>
+      <c r="N3" s="2" t="inlineStr"/>
+      <c r="O3" s="2" t="inlineStr"/>
+      <c r="P3" s="2" t="inlineStr"/>
+      <c r="Q3" s="2" t="inlineStr"/>
+      <c r="R3" s="2" t="inlineStr"/>
+      <c r="S3" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T3" s="2" t="inlineStr"/>
+      <c r="U3" s="2" t="inlineStr"/>
+      <c r="V3" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr"/>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>An extended organism that is a member of the species Homo sapiens.</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>extended organism</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="inlineStr"/>
+      <c r="H4" s="2" t="inlineStr"/>
+      <c r="I4" s="2" t="inlineStr"/>
+      <c r="J4" s="2" t="inlineStr"/>
+      <c r="K4" s="2" t="inlineStr"/>
+      <c r="L4" s="2" t="inlineStr"/>
+      <c r="M4" s="2" t="inlineStr"/>
+      <c r="N4" s="2" t="inlineStr"/>
+      <c r="O4" s="2" t="inlineStr"/>
+      <c r="P4" s="2" t="inlineStr"/>
+      <c r="Q4" s="2" t="inlineStr"/>
+      <c r="R4" s="2" t="inlineStr"/>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr"/>
+      <c r="U4" s="2" t="inlineStr"/>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Temporary entity spreadsheet/Temporary entity spreadsheet.xlsx
+++ b/Temporary entity spreadsheet/Temporary entity spreadsheet.xlsx
@@ -1,155 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bgehrk/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE7FCEB-07B4-5E42-BF5D-62FE7014A116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>The aggregate of human age in a population.</t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>Logical Definition</t>
-  </si>
-  <si>
-    <t>Informal Definition</t>
-  </si>
-  <si>
-    <t>Synonyms</t>
-  </si>
-  <si>
-    <t>Examples</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Sub-ontology</t>
-  </si>
-  <si>
-    <t>Definition source</t>
-  </si>
-  <si>
-    <t>Cross reference</t>
-  </si>
-  <si>
-    <t>REL 'part of'</t>
-  </si>
-  <si>
-    <t>REL 'has part'</t>
-  </si>
-  <si>
-    <t>REL 'is about'</t>
-  </si>
-  <si>
-    <t>LSR no.</t>
-  </si>
-  <si>
-    <t>Ontology section</t>
-  </si>
-  <si>
-    <t>Curator note</t>
-  </si>
-  <si>
-    <t>Curation status</t>
-  </si>
-  <si>
-    <t>To be reviewed by</t>
-  </si>
-  <si>
-    <t>Reviewer query</t>
-  </si>
-  <si>
-    <t>Curator</t>
-  </si>
-  <si>
-    <t>aggregate human age</t>
-  </si>
-  <si>
-    <t>data item</t>
-  </si>
-  <si>
-    <t>Proposed</t>
-  </si>
-  <si>
-    <t>PS</t>
-  </si>
-  <si>
-    <t>health status attribute</t>
-  </si>
-  <si>
-    <t>A personal attribute that is the state of an individual's mental or physical condition.</t>
-  </si>
-  <si>
-    <t>personal attribute</t>
-  </si>
-  <si>
-    <t>person</t>
-  </si>
-  <si>
-    <t>An extended organism that is a member of the species Homo sapiens.</t>
-  </si>
-  <si>
-    <t>extended organism</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="00ffffff"/>
       </patternFill>
     </fill>
   </fills>
@@ -166,23 +56,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -470,183 +419,273 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Definition</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Parent</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Logical Definition</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Informal Definition</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Sub-ontology</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Definition source</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>REL 'part of'</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>REL 'has part'</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>REL 'is about'</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>LSR no.</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Ontology section</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Curator note</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Curation status</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>To be reviewed by</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Reviewer query</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Curator</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2" t="s">
-        <v>25</v>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000188</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>aggregate human age</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>The aggregate of human age in a population.</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr"/>
+      <c r="H2" s="2" t="inlineStr"/>
+      <c r="I2" s="2" t="inlineStr"/>
+      <c r="J2" s="2" t="inlineStr"/>
+      <c r="K2" s="2" t="inlineStr"/>
+      <c r="L2" s="2" t="inlineStr"/>
+      <c r="M2" s="2" t="inlineStr"/>
+      <c r="N2" s="2" t="inlineStr"/>
+      <c r="O2" s="2" t="inlineStr"/>
+      <c r="P2" s="2" t="inlineStr"/>
+      <c r="Q2" s="2" t="inlineStr"/>
+      <c r="R2" s="2" t="inlineStr"/>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="inlineStr"/>
+      <c r="U2" s="2" t="inlineStr"/>
+      <c r="V2" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2" t="s">
-        <v>25</v>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000189</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>health status attribute</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>A personal attribute that is the state of an individual's mental or physical condition.</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>personal attribute</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr"/>
+      <c r="G3" s="2" t="inlineStr"/>
+      <c r="H3" s="2" t="inlineStr"/>
+      <c r="I3" s="2" t="inlineStr"/>
+      <c r="J3" s="2" t="inlineStr"/>
+      <c r="K3" s="2" t="inlineStr"/>
+      <c r="L3" s="2" t="inlineStr"/>
+      <c r="M3" s="2" t="inlineStr"/>
+      <c r="N3" s="2" t="inlineStr"/>
+      <c r="O3" s="2" t="inlineStr"/>
+      <c r="P3" s="2" t="inlineStr"/>
+      <c r="Q3" s="2" t="inlineStr"/>
+      <c r="R3" s="2" t="inlineStr"/>
+      <c r="S3" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T3" s="2" t="inlineStr"/>
+      <c r="U3" s="2" t="inlineStr"/>
+      <c r="V3" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2" t="s">
-        <v>25</v>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000190</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>An extended organism that is a member of the species Homo sapiens.</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>extended organism</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="inlineStr"/>
+      <c r="H4" s="2" t="inlineStr"/>
+      <c r="I4" s="2" t="inlineStr"/>
+      <c r="J4" s="2" t="inlineStr"/>
+      <c r="K4" s="2" t="inlineStr"/>
+      <c r="L4" s="2" t="inlineStr"/>
+      <c r="M4" s="2" t="inlineStr"/>
+      <c r="N4" s="2" t="inlineStr"/>
+      <c r="O4" s="2" t="inlineStr"/>
+      <c r="P4" s="2" t="inlineStr"/>
+      <c r="Q4" s="2" t="inlineStr"/>
+      <c r="R4" s="2" t="inlineStr"/>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr"/>
+      <c r="U4" s="2" t="inlineStr"/>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>PS; BG</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Temporary entity spreadsheet/Temporary entity spreadsheet.xlsx
+++ b/Temporary entity spreadsheet/Temporary entity spreadsheet.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,6 +688,54 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000191</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>repeated measures study design</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>A study design in which measurements taken on the same study participants at two or more different times in different circumstances  are compared.</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>study design</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="inlineStr"/>
+      <c r="G5" s="2" t="inlineStr"/>
+      <c r="H5" s="2" t="inlineStr"/>
+      <c r="I5" s="2" t="inlineStr"/>
+      <c r="J5" s="2" t="inlineStr"/>
+      <c r="K5" s="2" t="inlineStr"/>
+      <c r="L5" s="2" t="inlineStr"/>
+      <c r="M5" s="2" t="inlineStr"/>
+      <c r="N5" s="2" t="inlineStr"/>
+      <c r="O5" s="2" t="inlineStr"/>
+      <c r="P5" s="2" t="inlineStr"/>
+      <c r="Q5" s="2" t="inlineStr"/>
+      <c r="R5" s="2" t="inlineStr"/>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr"/>
+      <c r="U5" s="2" t="inlineStr"/>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Temporary entity spreadsheet/Temporary entity spreadsheet.xlsx
+++ b/Temporary entity spreadsheet/Temporary entity spreadsheet.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,22 +595,22 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000189</t>
+          <t>CHEBI:35470</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>health status attribute</t>
+          <t>central nervous system drug</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>A personal attribute that is the state of an individual's mental or physical condition.</t>
+          <t>A class of drugs producing both physiological and psychological effects through a variety of mechanisms involving the central nervous system.</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>function</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr"/>
@@ -636,29 +636,29 @@
       <c r="U3" s="2" t="inlineStr"/>
       <c r="V3" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>BG</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000190</t>
+          <t>CMO:0000000</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>clinical measurement</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>An extended organism that is a member of the species Homo sapiens.</t>
+          <t>A quantitative or qualitative value which is the result of an act of assessing a morphological or physiological state or property in a single individual or sample or a group of individuals or samples, based on direct observation or experimental manipulation.</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>extended organism</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr"/>
@@ -684,29 +684,29 @@
       <c r="U4" s="2" t="inlineStr"/>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>PS; BG</t>
+          <t>BG</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000191</t>
+          <t>GMHO:0000189</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>repeated measures study design</t>
+          <t>health status attribute</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>A study design in which measurements taken on the same study participants at two or more different times in different circumstances  are compared.</t>
+          <t>A personal attribute that is the state of an individual's mental or physical condition.</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>study design</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr"/>
@@ -732,6 +732,102 @@
       <c r="U5" s="2" t="inlineStr"/>
       <c r="V5" s="2" t="inlineStr">
         <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000190</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>An extended organism that is a member of the species Homo sapiens.</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>extended organism</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr"/>
+      <c r="G6" s="2" t="inlineStr"/>
+      <c r="H6" s="2" t="inlineStr"/>
+      <c r="I6" s="2" t="inlineStr"/>
+      <c r="J6" s="2" t="inlineStr"/>
+      <c r="K6" s="2" t="inlineStr"/>
+      <c r="L6" s="2" t="inlineStr"/>
+      <c r="M6" s="2" t="inlineStr"/>
+      <c r="N6" s="2" t="inlineStr"/>
+      <c r="O6" s="2" t="inlineStr"/>
+      <c r="P6" s="2" t="inlineStr"/>
+      <c r="Q6" s="2" t="inlineStr"/>
+      <c r="R6" s="2" t="inlineStr"/>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr"/>
+      <c r="U6" s="2" t="inlineStr"/>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>PS; BG</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000191</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>repeated measures study design</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>A study design in which measurements taken on the same study participants at two or more different times in different circumstances  are compared.</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>study design</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr"/>
+      <c r="G7" s="2" t="inlineStr"/>
+      <c r="H7" s="2" t="inlineStr"/>
+      <c r="I7" s="2" t="inlineStr"/>
+      <c r="J7" s="2" t="inlineStr"/>
+      <c r="K7" s="2" t="inlineStr"/>
+      <c r="L7" s="2" t="inlineStr"/>
+      <c r="M7" s="2" t="inlineStr"/>
+      <c r="N7" s="2" t="inlineStr"/>
+      <c r="O7" s="2" t="inlineStr"/>
+      <c r="P7" s="2" t="inlineStr"/>
+      <c r="Q7" s="2" t="inlineStr"/>
+      <c r="R7" s="2" t="inlineStr"/>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr"/>
+      <c r="U7" s="2" t="inlineStr"/>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
           <t>BG</t>
         </is>
       </c>

--- a/Temporary entity spreadsheet/Temporary entity spreadsheet.xlsx
+++ b/Temporary entity spreadsheet/Temporary entity spreadsheet.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,96 +593,96 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>CHEBI:35470</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>central nervous system drug</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>A class of drugs producing both physiological and psychological effects through a variety of mechanisms involving the central nervous system.</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>function</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr"/>
-      <c r="G3" s="2" t="inlineStr"/>
-      <c r="H3" s="2" t="inlineStr"/>
-      <c r="I3" s="2" t="inlineStr"/>
-      <c r="J3" s="2" t="inlineStr"/>
-      <c r="K3" s="2" t="inlineStr"/>
-      <c r="L3" s="2" t="inlineStr"/>
-      <c r="M3" s="2" t="inlineStr"/>
-      <c r="N3" s="2" t="inlineStr"/>
-      <c r="O3" s="2" t="inlineStr"/>
-      <c r="P3" s="2" t="inlineStr"/>
-      <c r="Q3" s="2" t="inlineStr"/>
-      <c r="R3" s="2" t="inlineStr"/>
-      <c r="S3" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T3" s="2" t="inlineStr"/>
-      <c r="U3" s="2" t="inlineStr"/>
-      <c r="V3" s="2" t="inlineStr">
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr">
         <is>
           <t>BG</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>CMO:0000000</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>clinical measurement</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>A quantitative or qualitative value which is the result of an act of assessing a morphological or physiological state or property in a single individual or sample or a group of individuals or samples, based on direct observation or experimental manipulation.</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr"/>
-      <c r="G4" s="2" t="inlineStr"/>
-      <c r="H4" s="2" t="inlineStr"/>
-      <c r="I4" s="2" t="inlineStr"/>
-      <c r="J4" s="2" t="inlineStr"/>
-      <c r="K4" s="2" t="inlineStr"/>
-      <c r="L4" s="2" t="inlineStr"/>
-      <c r="M4" s="2" t="inlineStr"/>
-      <c r="N4" s="2" t="inlineStr"/>
-      <c r="O4" s="2" t="inlineStr"/>
-      <c r="P4" s="2" t="inlineStr"/>
-      <c r="Q4" s="2" t="inlineStr"/>
-      <c r="R4" s="2" t="inlineStr"/>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr"/>
-      <c r="U4" s="2" t="inlineStr"/>
-      <c r="V4" s="2" t="inlineStr">
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
         <is>
           <t>BG</t>
         </is>
@@ -691,22 +691,22 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000189</t>
+          <t>OBI:0200000</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>health status attribute</t>
+          <t>data transformation</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>A personal attribute that is the state of an individual's mental or physical condition.</t>
+          <t>A planned process that produces output data from input data.</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>planned process [COB:0000082]</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr"/>
@@ -732,29 +732,29 @@
       <c r="U5" s="2" t="inlineStr"/>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>BG</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000190</t>
+          <t>GMHO:0000189</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>health status attribute</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>An extended organism that is a member of the species Homo sapiens.</t>
+          <t>A personal attribute that is the state of an individual's mental or physical condition.</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>extended organism</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr"/>
@@ -780,29 +780,29 @@
       <c r="U6" s="2" t="inlineStr"/>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>PS; BG</t>
+          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000191</t>
+          <t>GMHO:0000190</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>repeated measures study design</t>
+          <t>person</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>A study design in which measurements taken on the same study participants at two or more different times in different circumstances  are compared.</t>
+          <t>An extended organism that is a member of the species Homo sapiens.</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>study design</t>
+          <t>extended organism</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr"/>
@@ -828,6 +828,54 @@
       <c r="U7" s="2" t="inlineStr"/>
       <c r="V7" s="2" t="inlineStr">
         <is>
+          <t>PS; BG</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000191</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>repeated measures study design</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>A study design in which measurements taken on the same study participants at two or more different times in different circumstances  are compared.</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>study design</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr"/>
+      <c r="G8" s="2" t="inlineStr"/>
+      <c r="H8" s="2" t="inlineStr"/>
+      <c r="I8" s="2" t="inlineStr"/>
+      <c r="J8" s="2" t="inlineStr"/>
+      <c r="K8" s="2" t="inlineStr"/>
+      <c r="L8" s="2" t="inlineStr"/>
+      <c r="M8" s="2" t="inlineStr"/>
+      <c r="N8" s="2" t="inlineStr"/>
+      <c r="O8" s="2" t="inlineStr"/>
+      <c r="P8" s="2" t="inlineStr"/>
+      <c r="Q8" s="2" t="inlineStr"/>
+      <c r="R8" s="2" t="inlineStr"/>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr"/>
+      <c r="U8" s="2" t="inlineStr"/>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
           <t>BG</t>
         </is>
       </c>

--- a/Temporary entity spreadsheet/Temporary entity spreadsheet.xlsx
+++ b/Temporary entity spreadsheet/Temporary entity spreadsheet.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -40,6 +40,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00ffffff"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
   </fills>
@@ -55,10 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -689,48 +695,48 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>OBI:0200000</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>data transformation</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>A planned process that produces output data from input data.</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>planned process [COB:0000082]</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr"/>
-      <c r="G5" s="2" t="inlineStr"/>
-      <c r="H5" s="2" t="inlineStr"/>
-      <c r="I5" s="2" t="inlineStr"/>
-      <c r="J5" s="2" t="inlineStr"/>
-      <c r="K5" s="2" t="inlineStr"/>
-      <c r="L5" s="2" t="inlineStr"/>
-      <c r="M5" s="2" t="inlineStr"/>
-      <c r="N5" s="2" t="inlineStr"/>
-      <c r="O5" s="2" t="inlineStr"/>
-      <c r="P5" s="2" t="inlineStr"/>
-      <c r="Q5" s="2" t="inlineStr"/>
-      <c r="R5" s="2" t="inlineStr"/>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="inlineStr"/>
-      <c r="U5" s="2" t="inlineStr"/>
-      <c r="V5" s="2" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr"/>
+      <c r="F5" s="3" t="inlineStr"/>
+      <c r="G5" s="3" t="inlineStr"/>
+      <c r="H5" s="3" t="inlineStr"/>
+      <c r="I5" s="3" t="inlineStr"/>
+      <c r="J5" s="3" t="inlineStr"/>
+      <c r="K5" s="3" t="inlineStr"/>
+      <c r="L5" s="3" t="inlineStr"/>
+      <c r="M5" s="3" t="inlineStr"/>
+      <c r="N5" s="3" t="inlineStr"/>
+      <c r="O5" s="3" t="inlineStr"/>
+      <c r="P5" s="3" t="inlineStr"/>
+      <c r="Q5" s="3" t="inlineStr"/>
+      <c r="R5" s="3" t="inlineStr"/>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr"/>
+      <c r="U5" s="3" t="inlineStr"/>
+      <c r="V5" s="3" t="inlineStr">
         <is>
           <t>BG</t>
         </is>

--- a/Temporary entity spreadsheet/Temporary entity spreadsheet.xlsx
+++ b/Temporary entity spreadsheet/Temporary entity spreadsheet.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -689,48 +689,48 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>EFO:0000001</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>experimental factor</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>An experimental factor in Array Express which are essentially the variable aspects of an experiment design which can be used to describe an experiment, or set of experiments, in an increasingly detailed manner. This upper level class is really used to give a root class from which applications can rely on and not be tied to upper ontology classses which do change.</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>generically dependent continuant</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr"/>
-      <c r="G5" s="2" t="inlineStr"/>
-      <c r="H5" s="2" t="inlineStr"/>
-      <c r="I5" s="2" t="inlineStr"/>
-      <c r="J5" s="2" t="inlineStr"/>
-      <c r="K5" s="2" t="inlineStr"/>
-      <c r="L5" s="2" t="inlineStr"/>
-      <c r="M5" s="2" t="inlineStr"/>
-      <c r="N5" s="2" t="inlineStr"/>
-      <c r="O5" s="2" t="inlineStr"/>
-      <c r="P5" s="2" t="inlineStr"/>
-      <c r="Q5" s="2" t="inlineStr"/>
-      <c r="R5" s="2" t="inlineStr"/>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="inlineStr"/>
-      <c r="U5" s="2" t="inlineStr"/>
-      <c r="V5" s="2" t="inlineStr">
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
         <is>
           <t>BG</t>
         </is>
@@ -835,25 +835,29 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000191</t>
+          <t>OBI:0000011</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>repeated measures study design</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>A study design in which measurements taken on the same study participants at two or more different times in different circumstances  are compared.</t>
+          <t>A process that realizes a plan which is the concretization of a plan specification.</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>study design</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr"/>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>COB:0000082</t>
+        </is>
+      </c>
       <c r="F8" s="2" t="inlineStr"/>
       <c r="G8" s="2" t="inlineStr"/>
       <c r="H8" s="2" t="inlineStr"/>
@@ -880,6 +884,54 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000191</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>repeated measures study design</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>A study design in which measurements taken on the same study participants at two or more different times in different circumstances  are compared.</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>study design</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="inlineStr"/>
+      <c r="G9" s="2" t="inlineStr"/>
+      <c r="H9" s="2" t="inlineStr"/>
+      <c r="I9" s="2" t="inlineStr"/>
+      <c r="J9" s="2" t="inlineStr"/>
+      <c r="K9" s="2" t="inlineStr"/>
+      <c r="L9" s="2" t="inlineStr"/>
+      <c r="M9" s="2" t="inlineStr"/>
+      <c r="N9" s="2" t="inlineStr"/>
+      <c r="O9" s="2" t="inlineStr"/>
+      <c r="P9" s="2" t="inlineStr"/>
+      <c r="Q9" s="2" t="inlineStr"/>
+      <c r="R9" s="2" t="inlineStr"/>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr"/>
+      <c r="U9" s="2" t="inlineStr"/>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
